--- a/02_Proyecto/07.InformeGeneral/Cuadernos/05_Cuaderno_trabajo.xlsx
+++ b/02_Proyecto/07.InformeGeneral/Cuadernos/05_Cuaderno_trabajo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ordenador\Documents\GitHub\2563_G5_ACSW\02_Proyecto\07.InformeGeneral\Cuadernos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13B358F6-6DAF-44E4-A1F6-368E83529605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719623E0-4CE1-44E5-8E5F-DD5D659B41FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CuadernoTrabajo" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -92,9 +90,6 @@
     <t>Pruebas</t>
   </si>
   <si>
-    <t>Edwin Flores Castro</t>
-  </si>
-  <si>
     <t>CUADERNO DE TRABAJO  Nª</t>
   </si>
   <si>
@@ -165,12 +160,15 @@
   </si>
   <si>
     <t>Manual de Usuario y Guía Técnica</t>
+  </si>
+  <si>
+    <t>Grupo5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -772,49 +770,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,12 +788,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,7 +805,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1171,39 +1169,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="40" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="28" customWidth="1"/>
-    <col min="9" max="12" width="9.1796875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" style="28" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="20"/>
-    <col min="15" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="2" width="9.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" style="28" customWidth="1"/>
+    <col min="9" max="12" width="9.21875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" style="28" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" style="20"/>
+    <col min="15" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -1221,8 +1219,8 @@
       </c>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1232,24 +1230,24 @@
       <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50" t="s">
+      <c r="F5" s="66"/>
+      <c r="G5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="50" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="53"/>
-    </row>
-    <row r="6" spans="2:14" s="2" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="68"/>
+    </row>
+    <row r="6" spans="2:14" s="2" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
@@ -1285,7 +1283,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="48">
+      <c r="B7" s="63">
         <v>1</v>
       </c>
       <c r="C7" s="19">
@@ -1321,27 +1319,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="49"/>
+    <row r="8" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="64"/>
       <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
+      <c r="D8" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="62"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="48">
+      <c r="B9" s="63">
         <v>2</v>
       </c>
       <c r="C9" s="19">
@@ -1377,34 +1375,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="49"/>
+    <row r="10" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="64"/>
       <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="47"/>
+      <c r="D10" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="62"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="48">
+      <c r="B11" s="63">
         <v>3</v>
       </c>
       <c r="C11" s="19">
         <v>45629</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
@@ -1433,27 +1431,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="49"/>
+    <row r="12" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="64"/>
       <c r="C12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
+      <c r="D12" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="62"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="48">
+      <c r="B13" s="63">
         <v>4</v>
       </c>
       <c r="C13" s="19">
@@ -1489,27 +1487,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="49"/>
+    <row r="14" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="64"/>
       <c r="C14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="47"/>
+      <c r="D14" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="62"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="48">
+      <c r="B15" s="63">
         <v>5</v>
       </c>
       <c r="C15" s="19">
@@ -1545,27 +1543,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="49"/>
+    <row r="16" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="64"/>
       <c r="C16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="47"/>
+      <c r="D16" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="62"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="48">
+      <c r="B17" s="63">
         <v>6</v>
       </c>
       <c r="C17" s="19">
@@ -1601,27 +1599,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="49"/>
+    <row r="18" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="64"/>
       <c r="C18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="47"/>
+      <c r="D18" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="62"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="48">
+      <c r="B19" s="63">
         <v>7</v>
       </c>
       <c r="C19" s="19">
@@ -1657,27 +1655,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="49"/>
+    <row r="20" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="64"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47"/>
+      <c r="D20" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="62"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="48">
+      <c r="B21" s="63">
         <v>8</v>
       </c>
       <c r="C21" s="19">
@@ -1713,27 +1711,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="49"/>
+    <row r="22" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="64"/>
       <c r="C22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="47"/>
+      <c r="D22" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="62"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="48">
+      <c r="B23" s="63">
         <v>9</v>
       </c>
       <c r="C23" s="19">
@@ -1769,31 +1767,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="49"/>
+    <row r="24" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="64"/>
       <c r="C24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="62"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="63">
+        <v>10</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="48">
-        <v>10</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>18</v>
@@ -1825,27 +1823,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="49"/>
+    <row r="26" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="64"/>
       <c r="C26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
+      <c r="D26" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="62"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="48">
+      <c r="B27" s="63">
         <v>11</v>
       </c>
       <c r="C27" s="19">
@@ -1881,13 +1879,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="49"/>
+    <row r="28" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="64"/>
       <c r="C28" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -1901,7 +1899,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="48">
+      <c r="B29" s="63">
         <v>12</v>
       </c>
       <c r="C29" s="19">
@@ -1937,27 +1935,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="49"/>
+    <row r="30" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="64"/>
       <c r="C30" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
+      <c r="D30" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="62"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="48">
+      <c r="B31" s="63">
         <v>13</v>
       </c>
       <c r="C31" s="19">
@@ -1993,27 +1991,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="49"/>
+    <row r="32" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="64"/>
       <c r="C32" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
+      <c r="D32" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="62"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="48">
+      <c r="B33" s="63">
         <v>14</v>
       </c>
       <c r="C33" s="19">
@@ -2049,67 +2047,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="49"/>
+    <row r="34" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="64"/>
       <c r="C34" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="47"/>
-    </row>
-    <row r="35" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="48">
+      <c r="D34" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="62"/>
+    </row>
+    <row r="35" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="63">
         <v>15</v>
       </c>
       <c r="C35" s="19">
         <v>45636</v>
       </c>
-      <c r="D35" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-    </row>
-    <row r="36" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="49"/>
+      <c r="D35" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="62"/>
+    </row>
+    <row r="36" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="64"/>
       <c r="C36" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="47"/>
+      <c r="D36" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="62"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="48">
+      <c r="B37" s="63">
         <v>16</v>
       </c>
       <c r="C37" s="19">
@@ -2145,67 +2143,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="49"/>
+    <row r="38" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="64"/>
       <c r="C38" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="47"/>
-    </row>
-    <row r="39" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="48">
+      <c r="D38" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="62"/>
+    </row>
+    <row r="39" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="63">
         <v>17</v>
       </c>
       <c r="C39" s="19">
         <v>45637</v>
       </c>
-      <c r="D39" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="47"/>
-    </row>
-    <row r="40" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="49"/>
+      <c r="D39" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="62"/>
+    </row>
+    <row r="40" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="64"/>
       <c r="C40" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="47"/>
+      <c r="D40" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="62"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="48">
+      <c r="B41" s="63">
         <v>18</v>
       </c>
       <c r="C41" s="19">
@@ -2241,27 +2239,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="49"/>
+    <row r="42" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="64"/>
       <c r="C42" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="47"/>
+      <c r="D42" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="62"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="48">
+      <c r="B43" s="63">
         <v>19</v>
       </c>
       <c r="C43" s="19">
@@ -2298,598 +2296,648 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="54"/>
-      <c r="C44" s="55" t="s">
+      <c r="B44" s="70"/>
+      <c r="C44" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="56" t="s">
+      <c r="D44" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="73"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="74">
+        <v>20</v>
+      </c>
+      <c r="C45" s="53">
+        <v>45638</v>
+      </c>
+      <c r="D45" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="58"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="68">
-        <v>20</v>
-      </c>
-      <c r="C45" s="69">
-        <v>45638</v>
-      </c>
-      <c r="D45" s="70" t="s">
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55">
+        <v>2</v>
+      </c>
+      <c r="H45" s="56">
+        <v>2</v>
+      </c>
+      <c r="I45" s="57">
+        <v>2</v>
+      </c>
+      <c r="J45" s="57">
+        <v>27</v>
+      </c>
+      <c r="K45" s="57">
+        <v>27</v>
+      </c>
+      <c r="L45" s="58">
+        <v>1</v>
+      </c>
+      <c r="M45" s="56">
+        <v>6</v>
+      </c>
+      <c r="N45" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="74"/>
+      <c r="C46" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="71">
-        <v>2</v>
-      </c>
-      <c r="H45" s="72">
-        <v>2</v>
-      </c>
-      <c r="I45" s="73">
-        <v>2</v>
-      </c>
-      <c r="J45" s="73">
-        <v>27</v>
-      </c>
-      <c r="K45" s="73">
-        <v>27</v>
-      </c>
-      <c r="L45" s="74">
-        <v>1</v>
-      </c>
-      <c r="M45" s="72">
-        <v>6</v>
-      </c>
-      <c r="N45" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="68"/>
-      <c r="C46" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="75"/>
+      <c r="N46" s="75"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="64"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="50"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="59"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="64"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="50"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="59"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="59"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="64"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="50"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="59"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="64"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="50"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="59"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="59"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="64"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="50"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="59"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="59"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="64"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="50"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="59"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="59"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="64"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="50"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="59"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="59"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="64"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="50"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="59"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="76"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="59"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="64"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="50"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B64" s="59"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="76"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="76"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="76"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B65" s="59"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="64"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="50"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B66" s="59"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="76"/>
+      <c r="L66" s="76"/>
+      <c r="M66" s="76"/>
+      <c r="N66" s="76"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B67" s="59"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="64"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="51"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="50"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B68" s="59"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
-      <c r="K68" s="67"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="67"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="76"/>
+      <c r="L68" s="76"/>
+      <c r="M68" s="76"/>
+      <c r="N68" s="76"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B69" s="59"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="64"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="50"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B70" s="59"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="67"/>
-      <c r="N70" s="67"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="76"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="76"/>
+      <c r="K70" s="76"/>
+      <c r="L70" s="76"/>
+      <c r="M70" s="76"/>
+      <c r="N70" s="76"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B71" s="59"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="64"/>
-      <c r="K71" s="64"/>
-      <c r="L71" s="65"/>
-      <c r="M71" s="63"/>
-      <c r="N71" s="64"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="50"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B72" s="59"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="67"/>
-      <c r="L72" s="67"/>
-      <c r="M72" s="67"/>
-      <c r="N72" s="67"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="76"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="76"/>
+      <c r="K72" s="76"/>
+      <c r="L72" s="76"/>
+      <c r="M72" s="76"/>
+      <c r="N72" s="76"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B73" s="59"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="64"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="64"/>
-      <c r="L73" s="65"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="64"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="50"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B74" s="59"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="67"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="76"/>
+      <c r="I74" s="76"/>
+      <c r="J74" s="76"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="76"/>
+      <c r="M74" s="76"/>
+      <c r="N74" s="76"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B75" s="59"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="64"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="64"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="50"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B76" s="59"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="67"/>
-      <c r="L76" s="67"/>
-      <c r="M76" s="67"/>
-      <c r="N76" s="67"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="76"/>
+      <c r="M76" s="76"/>
+      <c r="N76" s="76"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B77" s="59"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="64"/>
-      <c r="J77" s="64"/>
-      <c r="K77" s="64"/>
-      <c r="L77" s="65"/>
-      <c r="M77" s="63"/>
-      <c r="N77" s="64"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="50"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B78" s="59"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="67"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="67"/>
-      <c r="N78" s="67"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="76"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="76"/>
+      <c r="M78" s="76"/>
+      <c r="N78" s="76"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B79" s="59"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="64"/>
-      <c r="L79" s="65"/>
-      <c r="M79" s="63"/>
-      <c r="N79" s="64"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="50"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B80" s="59"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="67"/>
-      <c r="K80" s="67"/>
-      <c r="L80" s="67"/>
-      <c r="M80" s="67"/>
-      <c r="N80" s="67"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="76"/>
+      <c r="K80" s="76"/>
+      <c r="L80" s="76"/>
+      <c r="M80" s="76"/>
+      <c r="N80" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="D35:N35"/>
-    <mergeCell ref="D39:N39"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D38:N38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D40:N40"/>
+    <mergeCell ref="D78:N78"/>
+    <mergeCell ref="D80:N80"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D74:N74"/>
+    <mergeCell ref="D76:N76"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D64:N64"/>
+    <mergeCell ref="D66:N66"/>
+    <mergeCell ref="D68:N68"/>
+    <mergeCell ref="D70:N70"/>
+    <mergeCell ref="D72:N72"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D50:N50"/>
+    <mergeCell ref="D52:N52"/>
+    <mergeCell ref="D54:N54"/>
+    <mergeCell ref="D56:N56"/>
+    <mergeCell ref="D58:N58"/>
+    <mergeCell ref="D60:N60"/>
+    <mergeCell ref="D62:N62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D44:N44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D46:N46"/>
+    <mergeCell ref="D48:N48"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D12:N12"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="D42:N42"/>
     <mergeCell ref="D34:N34"/>
@@ -2906,62 +2954,12 @@
     <mergeCell ref="D32:N32"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D12:N12"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D44:N44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D46:N46"/>
-    <mergeCell ref="D48:N48"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D50:N50"/>
-    <mergeCell ref="D52:N52"/>
-    <mergeCell ref="D54:N54"/>
-    <mergeCell ref="D56:N56"/>
-    <mergeCell ref="D58:N58"/>
-    <mergeCell ref="D60:N60"/>
-    <mergeCell ref="D62:N62"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D74:N74"/>
-    <mergeCell ref="D76:N76"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D78:N78"/>
-    <mergeCell ref="D80:N80"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D64:N64"/>
-    <mergeCell ref="D66:N66"/>
-    <mergeCell ref="D68:N68"/>
-    <mergeCell ref="D70:N70"/>
-    <mergeCell ref="D72:N72"/>
+    <mergeCell ref="D35:N35"/>
+    <mergeCell ref="D39:N39"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D38:N38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D40:N40"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
